--- a/COL 1 Group 1 Project plan CO2 Calculations.xlsx
+++ b/COL 1 Group 1 Project plan CO2 Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ben\Documents\EcoFly-Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D5E2A5-3BB6-4912-84DE-E8F28DB31C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE52B280-3B10-494A-8FC9-C1CEEABA18F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="5" r:id="rId1"/>
@@ -6934,19 +6934,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.0000000000000000000000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;?????_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000000000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;?????_ ;_ @_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -7448,9 +7448,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7499,7 +7499,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -7523,56 +7523,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7581,7 +7581,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7591,10 +7591,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7606,15 +7606,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7638,20 +7638,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7672,29 +7672,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7732,25 +7732,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7775,9 +7775,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7797,24 +7797,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7833,86 +7833,86 @@
       </extLst>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7930,16 +7930,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7951,17 +7951,17 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7971,13 +7971,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -7987,15 +7996,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8013,19 +8013,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8038,6 +8035,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8059,7 +8059,7 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8068,7 +8068,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8077,7 +8077,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8086,7 +8086,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8112,7 +8112,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8121,7 +8121,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8130,7 +8130,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8139,7 +8139,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8148,7 +8148,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8157,7 +8157,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8174,7 +8174,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8183,7 +8183,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8192,7 +8192,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8201,7 +8201,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8210,10 +8210,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <fill>
@@ -9057,7 +9057,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$R$4:$R$247</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>292800</c:v>
@@ -9869,7 +9869,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$Y$21</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1045085.3258696521</c:v>
@@ -9938,7 +9938,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$Y$22</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>889112.19512195128</c:v>
@@ -10007,7 +10007,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$Y$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>751236.46541383443</c:v>
@@ -10807,7 +10807,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$P$4:$P$247</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="244"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>1200</c:v>
@@ -11619,7 +11619,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$W$21</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>7917.3130747700916</c:v>
@@ -11688,7 +11688,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$W$22</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4858.5365853658541</c:v>
@@ -11757,7 +11757,7 @@
             <c:numRef>
               <c:f>'Passenger Calc'!$W$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3718.9924030387842</c:v>
@@ -11985,7 +11985,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -45835,17 +45835,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="226" t="s">
         <v>2091</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="F2" s="229" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="F2" s="226" t="s">
         <v>2090</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -46189,8 +46189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23019F07-6906-4B8A-AA02-87AFF2406F73}">
   <dimension ref="B3:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60791,8 +60791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FDC8B6-E087-49F3-8BD4-FD655F158505}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60831,7 +60831,7 @@
         <v>2228</v>
       </c>
       <c r="E2" s="210" t="s">
-        <v>2228</v>
+        <v>1682</v>
       </c>
       <c r="F2" s="119"/>
       <c r="G2" s="209" t="s">
@@ -60865,7 +60865,7 @@
         <v>2228</v>
       </c>
       <c r="E4" s="210" t="s">
-        <v>2228</v>
+        <v>1682</v>
       </c>
       <c r="F4" s="119"/>
       <c r="G4" s="209" t="s">
@@ -60934,10 +60934,10 @@
       <c r="H8" s="210" t="s">
         <v>2228</v>
       </c>
-      <c r="I8" s="211" t="s">
+      <c r="I8" s="212" t="s">
         <v>2229</v>
       </c>
-      <c r="J8" s="211" t="s">
+      <c r="J8" s="212" t="s">
         <v>2229</v>
       </c>
       <c r="K8" s="210" t="s">
@@ -60988,16 +60988,16 @@
       <c r="A12" t="s">
         <v>2273</v>
       </c>
-      <c r="H12" s="212" t="s">
+      <c r="H12" s="214" t="s">
         <v>2223</v>
       </c>
-      <c r="I12" s="214" t="s">
+      <c r="I12" s="217" t="s">
         <v>2226</v>
       </c>
-      <c r="J12" s="215" t="s">
+      <c r="J12" s="218" t="s">
         <v>2230</v>
       </c>
-      <c r="K12" s="216"/>
+      <c r="K12" s="219"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -61019,10 +61019,10 @@
         <f>Dashboard!$I7</f>
         <v>337.91621782956508</v>
       </c>
-      <c r="H13" s="213"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="210"/>
       <c r="J13" s="210"/>
-      <c r="K13" s="217"/>
+      <c r="K13" s="211"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -61044,14 +61044,14 @@
         <f>KPI´s!$O22</f>
         <v>1814056</v>
       </c>
-      <c r="H14" s="213"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="210" t="s">
         <v>1682</v>
       </c>
       <c r="J14" s="210" t="s">
         <v>2231</v>
       </c>
-      <c r="K14" s="217"/>
+      <c r="K14" s="211"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -61064,305 +61064,365 @@
         <f>'Lithium Carbon Offsetting'!M3</f>
         <v>2117627480.8518677</v>
       </c>
-      <c r="H15" s="213"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="210"/>
       <c r="J15" s="210"/>
-      <c r="K15" s="217"/>
+      <c r="K15" s="211"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2201</v>
       </c>
-      <c r="H16" s="213"/>
-      <c r="I16" s="211" t="s">
+      <c r="H16" s="215"/>
+      <c r="I16" s="212" t="s">
         <v>2227</v>
       </c>
       <c r="J16" s="210" t="s">
         <v>2232</v>
       </c>
-      <c r="K16" s="217"/>
+      <c r="K16" s="211"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2274</v>
       </c>
-      <c r="H17" s="213"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="210"/>
       <c r="J17" s="210"/>
-      <c r="K17" s="217"/>
+      <c r="K17" s="211"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="213"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="210" t="s">
         <v>2228</v>
       </c>
       <c r="J18" s="210" t="s">
         <v>2233</v>
       </c>
-      <c r="K18" s="217"/>
+      <c r="K18" s="211"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H19" s="213"/>
+      <c r="H19" s="215"/>
       <c r="I19" s="210"/>
       <c r="J19" s="210"/>
-      <c r="K19" s="217"/>
+      <c r="K19" s="211"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="213"/>
-      <c r="I20" s="211" t="s">
+      <c r="H20" s="215"/>
+      <c r="I20" s="212" t="s">
         <v>2229</v>
       </c>
       <c r="J20" s="210" t="s">
         <v>2234</v>
       </c>
-      <c r="K20" s="217"/>
+      <c r="K20" s="211"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H21" s="213"/>
+      <c r="H21" s="215"/>
       <c r="I21" s="210"/>
       <c r="J21" s="210"/>
-      <c r="K21" s="217"/>
+      <c r="K21" s="211"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H22" s="212" t="s">
+      <c r="H22" s="214" t="s">
         <v>2224</v>
       </c>
-      <c r="I22" s="214" t="s">
+      <c r="I22" s="217" t="s">
         <v>2226</v>
       </c>
-      <c r="J22" s="215" t="s">
+      <c r="J22" s="218" t="s">
         <v>2235</v>
       </c>
-      <c r="K22" s="216"/>
+      <c r="K22" s="219"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H23" s="213"/>
+      <c r="H23" s="215"/>
       <c r="I23" s="210"/>
       <c r="J23" s="210"/>
-      <c r="K23" s="217"/>
+      <c r="K23" s="211"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H24" s="213"/>
+      <c r="H24" s="215"/>
       <c r="I24" s="210" t="s">
         <v>1682</v>
       </c>
       <c r="J24" s="210"/>
-      <c r="K24" s="217"/>
+      <c r="K24" s="211"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H25" s="213"/>
+      <c r="H25" s="215"/>
       <c r="I25" s="210"/>
       <c r="J25" s="210"/>
-      <c r="K25" s="217"/>
+      <c r="K25" s="211"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H26" s="213"/>
-      <c r="I26" s="211" t="s">
+      <c r="H26" s="215"/>
+      <c r="I26" s="212" t="s">
         <v>2227</v>
       </c>
       <c r="J26" s="210" t="s">
         <v>2236</v>
       </c>
-      <c r="K26" s="217"/>
+      <c r="K26" s="211"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H27" s="213"/>
+      <c r="H27" s="215"/>
       <c r="I27" s="210"/>
       <c r="J27" s="210"/>
-      <c r="K27" s="217"/>
+      <c r="K27" s="211"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H28" s="213"/>
+      <c r="H28" s="215"/>
       <c r="I28" s="210" t="s">
         <v>2228</v>
       </c>
       <c r="J28" s="210"/>
-      <c r="K28" s="217"/>
+      <c r="K28" s="211"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H29" s="213"/>
+      <c r="H29" s="215"/>
       <c r="I29" s="210"/>
       <c r="J29" s="210"/>
-      <c r="K29" s="217"/>
+      <c r="K29" s="211"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H30" s="213"/>
-      <c r="I30" s="211" t="s">
+      <c r="H30" s="215"/>
+      <c r="I30" s="212" t="s">
         <v>2229</v>
       </c>
       <c r="J30" s="210" t="s">
         <v>2237</v>
       </c>
-      <c r="K30" s="217"/>
+      <c r="K30" s="211"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H31" s="213"/>
+      <c r="H31" s="215"/>
       <c r="I31" s="210"/>
       <c r="J31" s="210"/>
-      <c r="K31" s="217"/>
+      <c r="K31" s="211"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H32" s="212" t="s">
+      <c r="H32" s="214" t="s">
         <v>2225</v>
       </c>
-      <c r="I32" s="214" t="s">
+      <c r="I32" s="217" t="s">
         <v>2226</v>
       </c>
-      <c r="J32" s="215" t="s">
+      <c r="J32" s="218" t="s">
         <v>2238</v>
       </c>
-      <c r="K32" s="216"/>
+      <c r="K32" s="219"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H33" s="213"/>
+      <c r="H33" s="215"/>
       <c r="I33" s="210"/>
       <c r="J33" s="210"/>
-      <c r="K33" s="217"/>
+      <c r="K33" s="211"/>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H34" s="213"/>
+      <c r="H34" s="215"/>
       <c r="I34" s="210" t="s">
         <v>1682</v>
       </c>
       <c r="J34" s="210"/>
-      <c r="K34" s="217"/>
+      <c r="K34" s="211"/>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H35" s="213"/>
+      <c r="H35" s="215"/>
       <c r="I35" s="210"/>
       <c r="J35" s="210"/>
-      <c r="K35" s="217"/>
+      <c r="K35" s="211"/>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H36" s="213"/>
-      <c r="I36" s="211" t="s">
+      <c r="H36" s="215"/>
+      <c r="I36" s="212" t="s">
         <v>2227</v>
       </c>
       <c r="J36" s="210" t="s">
         <v>2245</v>
       </c>
-      <c r="K36" s="217"/>
+      <c r="K36" s="211"/>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H37" s="213"/>
+      <c r="H37" s="215"/>
       <c r="I37" s="210"/>
       <c r="J37" s="210"/>
-      <c r="K37" s="217"/>
+      <c r="K37" s="211"/>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H38" s="213"/>
+      <c r="H38" s="215"/>
       <c r="I38" s="210" t="s">
         <v>2228</v>
       </c>
       <c r="J38" s="210"/>
-      <c r="K38" s="217"/>
+      <c r="K38" s="211"/>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H39" s="213"/>
+      <c r="H39" s="215"/>
       <c r="I39" s="210"/>
       <c r="J39" s="210"/>
-      <c r="K39" s="217"/>
+      <c r="K39" s="211"/>
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H40" s="213"/>
-      <c r="I40" s="211" t="s">
+      <c r="H40" s="215"/>
+      <c r="I40" s="212" t="s">
         <v>2229</v>
       </c>
       <c r="J40" s="210" t="s">
         <v>2239</v>
       </c>
-      <c r="K40" s="217"/>
+      <c r="K40" s="211"/>
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H41" s="218"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="208"/>
       <c r="J41" s="208"/>
-      <c r="K41" s="219"/>
+      <c r="K41" s="213"/>
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H42" s="212" t="s">
+      <c r="H42" s="214" t="s">
         <v>2062</v>
       </c>
-      <c r="I42" s="214" t="s">
+      <c r="I42" s="217" t="s">
         <v>2226</v>
       </c>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="218" t="s">
         <v>2244</v>
       </c>
-      <c r="K42" s="216"/>
+      <c r="K42" s="219"/>
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H43" s="213"/>
+      <c r="H43" s="215"/>
       <c r="I43" s="210"/>
       <c r="J43" s="210"/>
-      <c r="K43" s="217"/>
+      <c r="K43" s="211"/>
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H44" s="213"/>
+      <c r="H44" s="215"/>
       <c r="I44" s="210" t="s">
         <v>1682</v>
       </c>
       <c r="J44" s="210" t="s">
         <v>2241</v>
       </c>
-      <c r="K44" s="217"/>
+      <c r="K44" s="211"/>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H45" s="213"/>
+      <c r="H45" s="215"/>
       <c r="I45" s="210"/>
       <c r="J45" s="210"/>
-      <c r="K45" s="217"/>
+      <c r="K45" s="211"/>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H46" s="213"/>
-      <c r="I46" s="211" t="s">
+      <c r="H46" s="215"/>
+      <c r="I46" s="212" t="s">
         <v>2227</v>
       </c>
       <c r="J46" s="210" t="s">
         <v>2240</v>
       </c>
-      <c r="K46" s="217"/>
+      <c r="K46" s="211"/>
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H47" s="213"/>
+      <c r="H47" s="215"/>
       <c r="I47" s="210"/>
       <c r="J47" s="210"/>
-      <c r="K47" s="217"/>
+      <c r="K47" s="211"/>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H48" s="213"/>
+      <c r="H48" s="215"/>
       <c r="I48" s="210" t="s">
         <v>2228</v>
       </c>
       <c r="J48" s="210" t="s">
         <v>2242</v>
       </c>
-      <c r="K48" s="217"/>
+      <c r="K48" s="211"/>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H49" s="213"/>
+      <c r="H49" s="215"/>
       <c r="I49" s="210"/>
       <c r="J49" s="210"/>
-      <c r="K49" s="217"/>
+      <c r="K49" s="211"/>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H50" s="213"/>
-      <c r="I50" s="211" t="s">
+      <c r="H50" s="215"/>
+      <c r="I50" s="212" t="s">
         <v>2229</v>
       </c>
       <c r="J50" s="210" t="s">
         <v>2243</v>
       </c>
-      <c r="K50" s="217"/>
+      <c r="K50" s="211"/>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H51" s="218"/>
+      <c r="H51" s="216"/>
       <c r="I51" s="208"/>
       <c r="J51" s="208"/>
-      <c r="K51" s="219"/>
+      <c r="K51" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="H32:H41"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="J44:K45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:K47"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="J34:K35"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="J48:K49"/>
     <mergeCell ref="I50:I51"/>
@@ -61379,66 +61439,6 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:K43"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:K45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:K47"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="J28:K29"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="H32:H41"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -63502,92 +63502,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="225">
+      <c r="A1" s="233">
         <v>2025</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
       <c r="N1" s="202"/>
-      <c r="O1" s="225">
+      <c r="O1" s="233">
         <v>2030</v>
       </c>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
       <c r="U1" s="191"/>
-      <c r="V1" s="225">
+      <c r="V1" s="233">
         <v>2030</v>
       </c>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="233"/>
       <c r="AB1" s="191"/>
-      <c r="AC1" s="225">
+      <c r="AC1" s="233">
         <v>2030</v>
       </c>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="233"/>
+      <c r="AH1" s="233"/>
       <c r="AI1" s="191"/>
-      <c r="AJ1" s="225">
+      <c r="AJ1" s="233">
         <v>2030</v>
       </c>
-      <c r="AK1" s="225"/>
-      <c r="AL1" s="225"/>
-      <c r="AM1" s="225"/>
-      <c r="AN1" s="225"/>
-      <c r="AO1" s="225"/>
-      <c r="AQ1" s="225">
+      <c r="AK1" s="233"/>
+      <c r="AL1" s="233"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="233"/>
+      <c r="AO1" s="233"/>
+      <c r="AQ1" s="233">
         <v>2050</v>
       </c>
-      <c r="AR1" s="225"/>
-      <c r="AS1" s="225"/>
-      <c r="AT1" s="225"/>
-      <c r="AU1" s="225"/>
-      <c r="AV1" s="225"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="233"/>
+      <c r="AT1" s="233"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="233"/>
       <c r="AW1" s="191"/>
-      <c r="AX1" s="225">
+      <c r="AX1" s="233">
         <v>2050</v>
       </c>
-      <c r="AY1" s="225"/>
-      <c r="AZ1" s="225"/>
-      <c r="BA1" s="225"/>
-      <c r="BB1" s="225"/>
-      <c r="BC1" s="225"/>
+      <c r="AY1" s="233"/>
+      <c r="AZ1" s="233"/>
+      <c r="BA1" s="233"/>
+      <c r="BB1" s="233"/>
+      <c r="BC1" s="233"/>
       <c r="BD1" s="191"/>
-      <c r="BE1" s="225">
+      <c r="BE1" s="233">
         <v>2050</v>
       </c>
-      <c r="BF1" s="225"/>
-      <c r="BG1" s="225"/>
-      <c r="BH1" s="225"/>
-      <c r="BI1" s="225"/>
-      <c r="BJ1" s="225"/>
+      <c r="BF1" s="233"/>
+      <c r="BG1" s="233"/>
+      <c r="BH1" s="233"/>
+      <c r="BI1" s="233"/>
+      <c r="BJ1" s="233"/>
       <c r="BK1" s="191"/>
-      <c r="BL1" s="225">
+      <c r="BL1" s="233">
         <v>2050</v>
       </c>
-      <c r="BM1" s="225"/>
-      <c r="BN1" s="225"/>
-      <c r="BO1" s="225"/>
-      <c r="BP1" s="225"/>
-      <c r="BQ1" s="225"/>
+      <c r="BM1" s="233"/>
+      <c r="BN1" s="233"/>
+      <c r="BO1" s="233"/>
+      <c r="BP1" s="233"/>
+      <c r="BQ1" s="233"/>
       <c r="BR1" s="191"/>
     </row>
     <row r="2" spans="1:76" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -63793,7 +63793,7 @@
       <c r="BX2" s="7"/>
     </row>
     <row r="3" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>1614</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -64047,7 +64047,7 @@
       </c>
     </row>
     <row r="4" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="232"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="173" t="s">
         <v>3</v>
       </c>
@@ -64299,7 +64299,7 @@
       </c>
     </row>
     <row r="5" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="232"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -64551,7 +64551,7 @@
       </c>
     </row>
     <row r="6" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="232"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="173" t="s">
         <v>5</v>
       </c>
@@ -64803,7 +64803,7 @@
       </c>
     </row>
     <row r="7" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="232"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -65055,7 +65055,7 @@
       </c>
     </row>
     <row r="8" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="173" t="s">
         <v>7</v>
       </c>
@@ -65307,7 +65307,7 @@
       </c>
     </row>
     <row r="9" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="232"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -65559,7 +65559,7 @@
       </c>
     </row>
     <row r="10" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="232"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="173" t="s">
         <v>9</v>
       </c>
@@ -65811,7 +65811,7 @@
       </c>
     </row>
     <row r="11" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="232"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="8" t="s">
         <v>740</v>
       </c>
@@ -66063,7 +66063,7 @@
       </c>
     </row>
     <row r="12" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="232"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="173" t="s">
         <v>11</v>
       </c>
@@ -66315,7 +66315,7 @@
       </c>
     </row>
     <row r="13" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="232"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -66567,7 +66567,7 @@
       </c>
     </row>
     <row r="14" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="232"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="173" t="s">
         <v>13</v>
       </c>
@@ -66819,7 +66819,7 @@
       </c>
     </row>
     <row r="15" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="232"/>
+      <c r="A15" s="231"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -67071,7 +67071,7 @@
       </c>
     </row>
     <row r="16" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="233"/>
+      <c r="A16" s="232"/>
       <c r="B16" s="173" t="s">
         <v>15</v>
       </c>
@@ -67323,7 +67323,7 @@
       </c>
     </row>
     <row r="17" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="230" t="s">
+      <c r="A17" s="229" t="s">
         <v>1613</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -67577,7 +67577,7 @@
       </c>
     </row>
     <row r="18" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="231"/>
+      <c r="A18" s="230"/>
       <c r="B18" s="173" t="s">
         <v>17</v>
       </c>
@@ -67829,7 +67829,7 @@
       </c>
     </row>
     <row r="19" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -68081,7 +68081,7 @@
       </c>
     </row>
     <row r="20" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="231"/>
+      <c r="A20" s="230"/>
       <c r="B20" s="173" t="s">
         <v>19</v>
       </c>
@@ -68333,7 +68333,7 @@
       </c>
     </row>
     <row r="21" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
+      <c r="A21" s="230"/>
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -68585,7 +68585,7 @@
       </c>
     </row>
     <row r="22" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="231"/>
+      <c r="A22" s="230"/>
       <c r="B22" s="173" t="s">
         <v>21</v>
       </c>
@@ -68855,79 +68855,79 @@
       <c r="I24" s="118" t="s">
         <v>2258</v>
       </c>
-      <c r="L24" s="226">
+      <c r="L24" s="227">
         <f>SUMPRODUCT(K3:K22,$BT$3:$BT$22)</f>
         <v>621765840.80639994</v>
       </c>
-      <c r="M24" s="226"/>
+      <c r="M24" s="227"/>
       <c r="N24" s="204"/>
       <c r="O24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="S24" s="226">
+      <c r="S24" s="227">
         <f>SUMPRODUCT(T3:T22,$BT$3:$BT$22)</f>
         <v>210493644.023</v>
       </c>
-      <c r="T24" s="226"/>
+      <c r="T24" s="227"/>
       <c r="U24" s="187"/>
       <c r="V24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="Z24" s="226">
+      <c r="Z24" s="227">
         <f>SUMPRODUCT(AA3:AA22,$BT$3:$BT$22)</f>
         <v>1943018.2525200013</v>
       </c>
-      <c r="AA24" s="226"/>
+      <c r="AA24" s="227"/>
       <c r="AB24" s="187"/>
       <c r="AC24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="AG24" s="226">
+      <c r="AG24" s="227">
         <f>SUMPRODUCT(AH3:AH22,$BT$3:$BT$22)</f>
         <v>5343300.1944299322</v>
       </c>
-      <c r="AH24" s="226"/>
+      <c r="AH24" s="227"/>
       <c r="AI24" s="187"/>
       <c r="AJ24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="AN24" s="226">
+      <c r="AN24" s="227">
         <f>SUMPRODUCT(AO3:AO22,$BT$3:$BT$22)</f>
         <v>621765840.80639994</v>
       </c>
-      <c r="AO24" s="226"/>
+      <c r="AO24" s="227"/>
       <c r="AQ24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="AU24" s="226">
+      <c r="AU24" s="227">
         <f>SUMPRODUCT(AV3:AV22,$BT$3:$BT$22)</f>
         <v>210493644.023</v>
       </c>
-      <c r="AV24" s="226"/>
+      <c r="AV24" s="227"/>
       <c r="AX24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="BB24" s="226">
+      <c r="BB24" s="227">
         <f>SUMPRODUCT(BC3:BC22,$BT$3:$BT$22)</f>
         <v>1943018.2525200013</v>
       </c>
-      <c r="BC24" s="226"/>
+      <c r="BC24" s="227"/>
       <c r="BE24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="BI24" s="226">
+      <c r="BI24" s="227">
         <f>SUMPRODUCT(BJ3:BJ22,$BT$3:$BT$22)</f>
         <v>5343300.1944299322</v>
       </c>
-      <c r="BJ24" s="226"/>
+      <c r="BJ24" s="227"/>
       <c r="BL24" s="118" t="s">
         <v>2213</v>
       </c>
-      <c r="BP24" s="226">
+      <c r="BP24" s="227">
         <f>SUMPRODUCT(BQ3:BQ22,$BT$3:$BT$22)</f>
         <v>621765840.80639994</v>
       </c>
-      <c r="BQ24" s="226"/>
+      <c r="BQ24" s="227"/>
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U25" s="187"/>
@@ -68941,78 +68941,78 @@
       <c r="I26" t="s">
         <v>2214</v>
       </c>
-      <c r="L26" s="227">
+      <c r="L26" s="228">
         <v>0</v>
       </c>
-      <c r="M26" s="227"/>
+      <c r="M26" s="228"/>
       <c r="N26" s="205"/>
       <c r="O26" t="s">
         <v>2214</v>
       </c>
-      <c r="S26" s="227">
+      <c r="S26" s="228">
         <f>SUMPRODUCT(P3:P22,$BT$3:$BT$22)*$H$36</f>
         <v>275260919.10699993</v>
       </c>
-      <c r="T26" s="227"/>
+      <c r="T26" s="228"/>
       <c r="U26" s="187"/>
       <c r="V26" t="s">
         <v>2214</v>
       </c>
-      <c r="Z26" s="227">
+      <c r="Z26" s="228">
         <f>SUMPRODUCT(W3:W22,$BT$3:$BT$22)*$H$37</f>
         <v>672543384.47225583</v>
       </c>
-      <c r="AA26" s="227"/>
+      <c r="AA26" s="228"/>
       <c r="AB26" s="187"/>
       <c r="AC26" t="s">
         <v>2214</v>
       </c>
-      <c r="AG26" s="227">
+      <c r="AG26" s="228">
         <f>SUMPRODUCT(AD3:AD22,$BT$3:$BT$22)*$H$38</f>
         <v>619045615.25287199</v>
       </c>
-      <c r="AH26" s="227"/>
+      <c r="AH26" s="228"/>
       <c r="AI26" s="187"/>
       <c r="AJ26" t="s">
         <v>2214</v>
       </c>
-      <c r="AN26" s="227">
+      <c r="AN26" s="228">
         <f>SUMPRODUCT(AK3:AK22,$BT$3:$BT$22)*$H$39</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="227"/>
+      <c r="AO26" s="228"/>
       <c r="AQ26" t="s">
         <v>2214</v>
       </c>
-      <c r="AU26" s="227">
+      <c r="AU26" s="228">
         <f>SUMPRODUCT(AR3:AR22,$BT$3:$BT$22)*$D$36</f>
         <v>210493644.02299997</v>
       </c>
-      <c r="AV26" s="227"/>
+      <c r="AV26" s="228"/>
       <c r="AX26" t="s">
         <v>2214</v>
       </c>
-      <c r="BB26" s="227">
+      <c r="BB26" s="228">
         <f>SUMPRODUCT(AY3:AY22,$BT$3:$BT$22)*$D$37</f>
         <v>455961616.59135991</v>
       </c>
-      <c r="BC26" s="227"/>
+      <c r="BC26" s="228"/>
       <c r="BE26" t="s">
         <v>2214</v>
       </c>
-      <c r="BI26" s="227">
+      <c r="BI26" s="228">
         <f>SUMPRODUCT(BF3:BF22,$BT$3:$BT$22)*$D$38</f>
         <v>419691942.54432005</v>
       </c>
-      <c r="BJ26" s="227"/>
+      <c r="BJ26" s="228"/>
       <c r="BL26" t="s">
         <v>2214</v>
       </c>
-      <c r="BP26" s="227">
+      <c r="BP26" s="228">
         <f>SUMPRODUCT(BM3:BM22,$BT$3:$BT$22)*$D$37</f>
         <v>0</v>
       </c>
-      <c r="BQ26" s="227"/>
+      <c r="BQ26" s="228"/>
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -69021,79 +69021,79 @@
       <c r="I27" t="s">
         <v>2215</v>
       </c>
-      <c r="L27" s="227">
+      <c r="L27" s="228">
         <f>(SUMPRODUCT(J3:J22,$BT$3:$BT$22)*F35)</f>
         <v>145726368.93899998</v>
       </c>
-      <c r="M27" s="227"/>
+      <c r="M27" s="228"/>
       <c r="N27" s="205"/>
       <c r="O27" t="s">
         <v>2215</v>
       </c>
-      <c r="S27" s="227">
+      <c r="S27" s="228">
         <f>(SUMPRODUCT(Q3:Q22,$BT$3:$BT$22)*$H$35)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="227"/>
+      <c r="T27" s="228"/>
       <c r="U27" s="187"/>
       <c r="V27" t="s">
         <v>2215</v>
       </c>
-      <c r="Z27" s="227">
+      <c r="Z27" s="228">
         <f>(SUMPRODUCT(X3:X22,$BT$3:$BT$22)*$H$35)</f>
         <v>19041578.874696001</v>
       </c>
-      <c r="AA27" s="227"/>
+      <c r="AA27" s="228"/>
       <c r="AB27" s="187"/>
       <c r="AC27" t="s">
         <v>2215</v>
       </c>
-      <c r="AG27" s="227">
+      <c r="AG27" s="228">
         <f>(SUMPRODUCT(AE3:AE22,$BT$3:$BT$22)*$H$35)</f>
         <v>30149166.551601987</v>
       </c>
-      <c r="AH27" s="227"/>
+      <c r="AH27" s="228"/>
       <c r="AI27" s="187"/>
       <c r="AJ27" t="s">
         <v>2215</v>
       </c>
-      <c r="AN27" s="227">
+      <c r="AN27" s="228">
         <f>(SUMPRODUCT(AL3:AL22,$BT$3:$BT$22)*$H$35)</f>
         <v>158679823.95579997</v>
       </c>
-      <c r="AO27" s="227"/>
+      <c r="AO27" s="228"/>
       <c r="AQ27" t="s">
         <v>2215</v>
       </c>
-      <c r="AU27" s="227">
+      <c r="AU27" s="228">
         <f>(SUMPRODUCT(AS3:AS22,$BT$3:$BT$22)*$D$35)</f>
         <v>0</v>
       </c>
-      <c r="AV27" s="227"/>
+      <c r="AV27" s="228"/>
       <c r="AX27" t="s">
         <v>2215</v>
       </c>
-      <c r="BB27" s="227">
+      <c r="BB27" s="228">
         <f>(SUMPRODUCT(AZ3:AZ22,$BT$3:$BT$22)*$D$35)</f>
         <v>25259237.282760002</v>
       </c>
-      <c r="BC27" s="227"/>
+      <c r="BC27" s="228"/>
       <c r="BE27" t="s">
         <v>2215</v>
       </c>
-      <c r="BI27" s="227">
+      <c r="BI27" s="228">
         <f>(SUMPRODUCT(BG3:BG22,$BT$3:$BT$22)*$D$35)</f>
         <v>39993792.364369981</v>
       </c>
-      <c r="BJ27" s="227"/>
+      <c r="BJ27" s="228"/>
       <c r="BL27" t="s">
         <v>2215</v>
       </c>
-      <c r="BP27" s="227">
+      <c r="BP27" s="228">
         <f>(SUMPRODUCT(BN3:BN22,$BT$3:$BT$22)*$D$35)</f>
         <v>210493644.02299997</v>
       </c>
-      <c r="BQ27" s="227"/>
+      <c r="BQ27" s="228"/>
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -69102,78 +69102,78 @@
       <c r="I28" t="s">
         <v>2218</v>
       </c>
-      <c r="L28" s="227">
+      <c r="L28" s="228">
         <v>0</v>
       </c>
-      <c r="M28" s="227"/>
+      <c r="M28" s="228"/>
       <c r="N28" s="205"/>
       <c r="O28" t="s">
         <v>2218</v>
       </c>
-      <c r="S28" s="227">
+      <c r="S28" s="228">
         <f>IF((SUMPRODUCT(T3:T22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(T3:T22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>105246822.0115</v>
       </c>
-      <c r="T28" s="227"/>
+      <c r="T28" s="228"/>
       <c r="U28" s="187"/>
       <c r="V28" t="s">
         <v>2218</v>
       </c>
-      <c r="Z28" s="227">
+      <c r="Z28" s="228">
         <f>IF((SUMPRODUCT(AA3:AA22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(AA3:AA22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>971509.12626000063</v>
       </c>
-      <c r="AA28" s="227"/>
+      <c r="AA28" s="228"/>
       <c r="AB28" s="187"/>
       <c r="AC28" t="s">
         <v>2218</v>
       </c>
-      <c r="AG28" s="227">
+      <c r="AG28" s="228">
         <f>IF((SUMPRODUCT(AH3:AH22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(AH3:AH22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>2671650.0972149661</v>
       </c>
-      <c r="AH28" s="227"/>
+      <c r="AH28" s="228"/>
       <c r="AI28" s="187"/>
       <c r="AJ28" t="s">
         <v>2218</v>
       </c>
-      <c r="AN28" s="227">
+      <c r="AN28" s="228">
         <f>IF((SUMPRODUCT(AO3:AO22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(AO3:AO22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>310882920.40319997</v>
       </c>
-      <c r="AO28" s="227"/>
+      <c r="AO28" s="228"/>
       <c r="AQ28" t="s">
         <v>2218</v>
       </c>
-      <c r="AU28" s="227">
+      <c r="AU28" s="228">
         <f>IF((SUMPRODUCT(AV3:AV22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(AV3:AV22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>105246822.0115</v>
       </c>
-      <c r="AV28" s="227"/>
+      <c r="AV28" s="228"/>
       <c r="AX28" t="s">
         <v>2218</v>
       </c>
-      <c r="BB28" s="227">
+      <c r="BB28" s="228">
         <f>IF((SUMPRODUCT(BC3:BC22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(BC3:BC22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>971509.12626000063</v>
       </c>
-      <c r="BC28" s="227"/>
+      <c r="BC28" s="228"/>
       <c r="BE28" t="s">
         <v>2218</v>
       </c>
-      <c r="BI28" s="227">
+      <c r="BI28" s="228">
         <f>IF((SUMPRODUCT(BJ3:BJ22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(BJ3:BJ22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>2671650.0972149661</v>
       </c>
-      <c r="BJ28" s="227"/>
+      <c r="BJ28" s="228"/>
       <c r="BL28" t="s">
         <v>2218</v>
       </c>
-      <c r="BP28" s="227">
+      <c r="BP28" s="228">
         <f>IF((SUMPRODUCT(BQ3:BQ22,$BT$3:$BT$22)*$D$41)&gt;0,SUMPRODUCT(BQ3:BQ22,$BT$3:$BT$22)*$D$41,0)</f>
         <v>310882920.40319997</v>
       </c>
-      <c r="BQ28" s="227"/>
+      <c r="BQ28" s="228"/>
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -69182,157 +69182,157 @@
       <c r="I29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="L29" s="228">
+      <c r="L29" s="225">
         <f>SUM(L26:M28)</f>
         <v>145726368.93899998</v>
       </c>
-      <c r="M29" s="229"/>
+      <c r="M29" s="226"/>
       <c r="N29" s="206"/>
       <c r="O29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="S29" s="228">
+      <c r="S29" s="225">
         <f>SUM(S26:T28)</f>
         <v>380507741.11849993</v>
       </c>
-      <c r="T29" s="229"/>
+      <c r="T29" s="226"/>
       <c r="U29" s="187"/>
       <c r="V29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="Z29" s="228">
+      <c r="Z29" s="225">
         <f>SUM(Z26:AA28)</f>
         <v>692556472.47321188</v>
       </c>
-      <c r="AA29" s="229"/>
+      <c r="AA29" s="226"/>
       <c r="AB29" s="187"/>
       <c r="AC29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="AG29" s="228">
+      <c r="AG29" s="225">
         <f>SUM(AG26:AH28)</f>
         <v>651866431.90168893</v>
       </c>
-      <c r="AH29" s="229"/>
+      <c r="AH29" s="226"/>
       <c r="AI29" s="187"/>
       <c r="AJ29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="AN29" s="228">
+      <c r="AN29" s="225">
         <f>SUM(AN26:AO28)</f>
         <v>469562744.35899997</v>
       </c>
-      <c r="AO29" s="229"/>
+      <c r="AO29" s="226"/>
       <c r="AQ29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="AU29" s="228">
+      <c r="AU29" s="225">
         <f>SUM(AU26:AV28)</f>
         <v>315740466.0345</v>
       </c>
-      <c r="AV29" s="229"/>
+      <c r="AV29" s="226"/>
       <c r="AX29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="BB29" s="228">
+      <c r="BB29" s="225">
         <f>SUM(BB26:BC28)</f>
         <v>482192363.00037992</v>
       </c>
-      <c r="BC29" s="229"/>
+      <c r="BC29" s="226"/>
       <c r="BE29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="BI29" s="228">
+      <c r="BI29" s="225">
         <f>SUM(BI26:BJ28)</f>
         <v>462357385.00590497</v>
       </c>
-      <c r="BJ29" s="229"/>
+      <c r="BJ29" s="226"/>
       <c r="BL29" s="118" t="s">
         <v>2216</v>
       </c>
-      <c r="BP29" s="228">
+      <c r="BP29" s="225">
         <f>SUM(BP26:BQ28)</f>
         <v>521376564.42619991</v>
       </c>
-      <c r="BQ29" s="229"/>
+      <c r="BQ29" s="226"/>
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>2260</v>
       </c>
-      <c r="L30" s="227">
+      <c r="L30" s="228">
         <f>L29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>0.9</v>
       </c>
-      <c r="M30" s="227"/>
+      <c r="M30" s="228"/>
       <c r="N30" s="205"/>
       <c r="O30" t="s">
         <v>2260</v>
       </c>
-      <c r="S30" s="227">
+      <c r="S30" s="228">
         <f>S29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>2.35</v>
       </c>
-      <c r="T30" s="227"/>
+      <c r="T30" s="228"/>
       <c r="U30" s="187"/>
       <c r="V30" t="s">
         <v>2260</v>
       </c>
-      <c r="Z30" s="227">
+      <c r="Z30" s="228">
         <f>Z29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>4.2771999999999997</v>
       </c>
-      <c r="AA30" s="227"/>
+      <c r="AA30" s="228"/>
       <c r="AB30" s="187"/>
       <c r="AC30" t="s">
         <v>2260</v>
       </c>
-      <c r="AG30" s="227">
+      <c r="AG30" s="228">
         <f>AG29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>4.0259</v>
       </c>
-      <c r="AH30" s="227"/>
+      <c r="AH30" s="228"/>
       <c r="AI30" s="187"/>
       <c r="AJ30" t="s">
         <v>2260</v>
       </c>
-      <c r="AN30" s="227">
+      <c r="AN30" s="228">
         <f>AN29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="AO30" s="227"/>
+      <c r="AO30" s="228"/>
       <c r="AQ30" t="s">
         <v>2260</v>
       </c>
-      <c r="AU30" s="227">
+      <c r="AU30" s="228">
         <f>AU29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="AV30" s="227"/>
+      <c r="AV30" s="228"/>
       <c r="AX30" t="s">
         <v>2260</v>
       </c>
-      <c r="BB30" s="227">
+      <c r="BB30" s="228">
         <f>BB29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>2.9779999999999998</v>
       </c>
-      <c r="BC30" s="227"/>
+      <c r="BC30" s="228"/>
       <c r="BE30" t="s">
         <v>2260</v>
       </c>
-      <c r="BI30" s="227">
+      <c r="BI30" s="228">
         <f>BI29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>2.8555000000000001</v>
       </c>
-      <c r="BJ30" s="227"/>
+      <c r="BJ30" s="228"/>
       <c r="BL30" t="s">
         <v>2260</v>
       </c>
-      <c r="BP30" s="227">
+      <c r="BP30" s="228">
         <f>BP29/(SUMPRODUCT($J$3:$J$22,$BT$3:$BT$22))</f>
         <v>3.2199999999999998</v>
       </c>
-      <c r="BQ30" s="227"/>
+      <c r="BQ30" s="228"/>
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="U31" s="187"/>
@@ -69579,31 +69579,41 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="BL1:BQ1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BE1:BJ1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AU24:AV24"/>
+    <mergeCell ref="BB24:BC24"/>
+    <mergeCell ref="BI24:BJ24"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="AU27:AV27"/>
+    <mergeCell ref="AU26:AV26"/>
+    <mergeCell ref="BB26:BC26"/>
+    <mergeCell ref="BB27:BC27"/>
+    <mergeCell ref="BI26:BJ26"/>
+    <mergeCell ref="BI27:BJ27"/>
+    <mergeCell ref="BP30:BQ30"/>
+    <mergeCell ref="BB30:BC30"/>
+    <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BP27:BQ27"/>
+    <mergeCell ref="BP28:BQ28"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="BB28:BC28"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="BB29:BC29"/>
+    <mergeCell ref="BI29:BJ29"/>
+    <mergeCell ref="BP29:BQ29"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="AX32:AY32"/>
+    <mergeCell ref="BE32:BF32"/>
+    <mergeCell ref="BL32:BM32"/>
+    <mergeCell ref="BI30:BJ30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O1:T1"/>
@@ -69617,41 +69627,31 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="AX32:AY32"/>
-    <mergeCell ref="BE32:BF32"/>
-    <mergeCell ref="BL32:BM32"/>
-    <mergeCell ref="BI30:BJ30"/>
-    <mergeCell ref="BP30:BQ30"/>
-    <mergeCell ref="BB30:BC30"/>
-    <mergeCell ref="AU30:AV30"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BP27:BQ27"/>
-    <mergeCell ref="BP28:BQ28"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="BB28:BC28"/>
-    <mergeCell ref="AU28:AV28"/>
-    <mergeCell ref="BB29:BC29"/>
-    <mergeCell ref="BI29:BJ29"/>
-    <mergeCell ref="BP29:BQ29"/>
-    <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="BB24:BC24"/>
-    <mergeCell ref="BI24:BJ24"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="AU27:AV27"/>
-    <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="BB26:BC26"/>
-    <mergeCell ref="BB27:BC27"/>
-    <mergeCell ref="BI26:BJ26"/>
-    <mergeCell ref="BI27:BJ27"/>
-    <mergeCell ref="BL1:BQ1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BE1:BJ1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AG29:AH29"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
